--- a/output/rat/RAT_new_2_check_2,3_solution_True_embeddings.xlsx
+++ b/output/rat/RAT_new_2_check_2,3_solution_True_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>top_embedding</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>relation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
@@ -499,10 +504,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>cottage is "derived_from" to cheese | swiss is "related_to, derived_from" to cheese | cake is "derived_from" to cheese</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,10 +543,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>cottage is "derived_from" to cheese | swiss is "related_to, derived_from" to cheese</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,10 +582,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>cottage is "derived_from" to cheese | cottage is "derived_from" to food | cake is "derived_from" to cheese | cake is "derived_from" to food</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -601,10 +621,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>swiss is "related_to, derived_from" to cheese | cake is "derived_from" to cheese</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -627,6 +652,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -649,6 +675,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -679,10 +706,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>cold</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>cream is "derived_from" to of | cream is "is_a, derived_from" to light | cream is "derived_from, is_a" to cold | cream is "related_to, derived_from, is_a" to heavy | cream is "derived_from" to in | water is "synonym, related_to, is_a" to of | water is "related_to, is_a" to light | water is "related_to" to cold | water is "related_to, is_a" to heavy | water is "receives_action" to in</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,6 +737,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -727,6 +760,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -757,10 +791,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>sore</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>loser is "derived_from, antonym" to sore | throat is "derived_from" to sore</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -783,6 +822,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +845,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -827,6 +868,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -857,10 +899,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>show is "is_a" to dog | life is "related_to" to dog</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -883,6 +930,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -913,10 +961,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>life is "related_to" to and | life is "related_to" to long | life is "related_to, is_a, part_of" to of | life is "related_to" to to | row is "derived_from" to and | row is "derived_from" to long | row is "is_a" to of | row is "derived_from" to to</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,7 +981,8 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>31.25%</t>
         </is>
